--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\My-Test\estock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA417F14-F4BD-4239-A4A1-0F7692ED36BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5542CB-BCB3-43DE-81AA-4488FDC34E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="1430" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{56A42BC0-186D-4B00-B850-544DB95BFDE2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{56A42BC0-186D-4B00-B850-544DB95BFDE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -1229,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDBA4D-8618-491D-AC5B-0A9AEEB14D5B}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1324,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D735B380-EB15-4863-9468-490137E8A30B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
